--- a/file/template/format_absensi.xlsx
+++ b/file/template/format_absensi.xlsx
@@ -77,9 +77,6 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>SURAT PEMBERITAHUAN</t>
-  </si>
-  <si>
     <t>Tgl Mulai</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>SURAT PENGAJUAN CUTI, PEMBERITAHUAN , IJIN DAN KETERANGAN TIDAK ABSEN</t>
   </si>
 </sst>
 </file>
@@ -462,30 +462,6 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
@@ -514,6 +490,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,762 +807,762 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="17"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="1"/>
     </row>
     <row r="2" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="19"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="3"/>
     </row>
     <row r="3" spans="1:48" ht="16.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="26" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="29" t="s">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="19"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="3"/>
     </row>
     <row r="4" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="27" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="30" t="s">
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="19"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="3"/>
     </row>
     <row r="5" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="28" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="31" t="s">
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="19"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="3"/>
     </row>
     <row r="6" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="19"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="3"/>
     </row>
     <row r="7" spans="1:48" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="34" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="34" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
     </row>
     <row r="8" spans="1:48" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="34" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
     </row>
     <row r="9" spans="1:48" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="34" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
     </row>
     <row r="10" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="34" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
     </row>
     <row r="11" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="19"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="3"/>
     </row>
     <row r="12" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="3"/>
     </row>
     <row r="13" spans="1:48" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
     </row>
     <row r="14" spans="1:48" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="39" t="s">
         <v>21</v>
-      </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="39" t="s">
-        <v>22</v>
       </c>
       <c r="AQ14" s="40"/>
       <c r="AR14" s="40"/>
       <c r="AS14" s="40"/>
       <c r="AT14" s="41"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="19"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
